--- a/fatlossoptimizer.xlsx
+++ b/fatlossoptimizer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Fat Loss Optimizer</t>
   </si>
@@ -39,13 +39,25 @@
     </r>
   </si>
   <si>
+    <t>Key</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current Weight (lb or kg)</t>
   </si>
   <si>
+    <t>Input</t>
+  </si>
+  <si>
     <t xml:space="preserve">Body Fat Percentage (%)</t>
   </si>
   <si>
+    <t>Output</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goal Body Fat Percent (%)</t>
+  </si>
+  <si>
+    <t>Calculaton</t>
   </si>
   <si>
     <t xml:space="preserve">Current Lean Body Mass</t>
@@ -208,22 +220,26 @@
     <xf fontId="5" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
     <xf fontId="6" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="6" applyFont="1"/>
     <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="4" borderId="1" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="1" numFmtId="161" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,161 +781,174 @@
     <col bestFit="1" customWidth="1" min="3" max="3" width="26.00390625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="10.7109375"/>
     <col bestFit="1" customWidth="1" min="5" max="5" width="23"/>
+    <col bestFit="1" min="7" max="7" width="9.83203125"/>
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
         <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11">
         <f>D5*(1-D6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
         <f>D9*0.97</f>
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="14.25">
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14">
         <f>D10/(1-D7)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="14.25">
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14">
         <f>D5-D11</f>
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="14.25">
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12">
+        <v>14</v>
+      </c>
+      <c r="D13" s="16">
         <f>D6-D7</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="14.25">
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="14" t="e">
+        <v>16</v>
+      </c>
+      <c r="D16" s="18" t="e">
         <f>ABS((D5-D11)/D15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="E17" s="11"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15">
+        <v>18</v>
+      </c>
+      <c r="D18" s="19">
         <v>45049</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" ht="14.25">
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="16" t="e">
+        <v>19</v>
+      </c>
+      <c r="D19" s="20" t="e">
         <f>D18+(D16*7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/fatlossoptimizer.xlsx
+++ b/fatlossoptimizer.xlsx
@@ -927,7 +927,8 @@
         <v>18</v>
       </c>
       <c r="D18" s="19">
-        <v>45049</v>
+        <f ca="1">TODAY()</f>
+        <v>45087</v>
       </c>
       <c r="E18" s="15"/>
     </row>
